--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EC1C3C-90AD-423B-B08A-0C649E4A01C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C544BD8-A964-4762-98B5-688611F00B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="2925" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33630" yWindow="1440" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,82 +858,100 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C544BD8-A964-4762-98B5-688611F00B38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CDD8A-6C5F-4D81-AE44-F58ADE429404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="1440" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32475" yWindow="1230" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +832,9 @@
       <c r="A75">
         <v>75</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CDD8A-6C5F-4D81-AE44-F58ADE429404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CD8EE-1973-439C-B635-D81EC5977BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="1230" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1230" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +840,16 @@
       <c r="A76">
         <v>76</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03CD8EE-1973-439C-B635-D81EC5977BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA06795-7F48-4833-B85E-781AEA631222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1230" windowWidth="15360" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="840" windowWidth="7725" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,30 +603,48 @@
       <c r="A31">
         <v>31</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA06795-7F48-4833-B85E-781AEA631222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F52218-3F75-4723-A96F-813982B8C7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="840" windowWidth="7725" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +651,9 @@
       <c r="A37">
         <v>37</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -661,11 +664,17 @@
       <c r="A39">
         <v>39</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -706,6 +715,9 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F52218-3F75-4723-A96F-813982B8C7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF167F-46A7-4B7B-8431-D0A1D6483C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,83 +724,92 @@
       <c r="A48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAF167F-46A7-4B7B-8431-D0A1D6483C45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133245C-C219-4E26-A06C-2D9AAF4C62E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="15330" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,20 +748,32 @@
       <c r="A51">
         <v>51</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133245C-C219-4E26-A06C-2D9AAF4C62E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612BBDF-2071-4D5A-AC5F-48F07F16D1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="15330" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="15330" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +780,16 @@
       <c r="A55">
         <v>55</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3612BBDF-2071-4D5A-AC5F-48F07F16D1EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5A8B6-299C-4F38-A192-DCA0582E7FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="45" windowWidth="15330" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,11 +796,17 @@
       <c r="A57">
         <v>57</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -810,6 +816,9 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5A8B6-299C-4F38-A192-DCA0582E7FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D593E-157D-45C7-834B-B28E33D81A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2520" windowWidth="19590" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +825,9 @@
       <c r="A61">
         <v>61</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garnik.haydosyan\Desktop\Levelup_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D593E-157D-45C7-834B-B28E33D81A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EDB7B-0A3B-4523-BD92-4657BF98D175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2520" windowWidth="19590" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="1">
   <si>
     <t>v</t>
   </si>
@@ -70,7 +70,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,15 +833,24 @@
       <c r="A62">
         <v>62</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">

--- a/spring lessons.xlsx
+++ b/spring lessons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming lessons\Levelup_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22EDB7B-0A3B-4523-BD92-4657BF98D175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3599D518-EC3D-467D-87D9-61ECE847FAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="1710" windowWidth="9060" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="2">
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
 </sst>
 </file>
@@ -43,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,14 +72,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +713,9 @@
       <c r="A44">
         <v>44</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -812,6 +827,9 @@
       <c r="A59">
         <v>59</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -857,31 +875,47 @@
       <c r="A65">
         <v>65</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -895,16 +929,25 @@
       <c r="A72">
         <v>72</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -934,25 +977,40 @@
       <c r="A78">
         <v>78</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
